--- a/frekfencja.xlsx
+++ b/frekfencja.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frekfencja" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,9 +48,6 @@
     <t>frekfencja (procent obecności)</t>
   </si>
   <si>
-    <t>średnia godzin nieusprawiedliwionych na ucznia</t>
-  </si>
-  <si>
     <t>I A</t>
   </si>
   <si>
@@ -66,6 +64,9 @@
   </si>
   <si>
     <t>II C</t>
+  </si>
+  <si>
+    <t>nagroda</t>
   </si>
 </sst>
 </file>
@@ -110,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -207,37 +208,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -257,32 +228,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -301,14 +246,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,14 +280,13 @@
       <alignment vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -609,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,110 +582,1281 @@
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="9">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
+        <v>828</v>
+      </c>
+      <c r="F3" s="2">
+        <v>555</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500</v>
+      </c>
+      <c r="H3" s="14">
+        <f>1 - F3/E3</f>
+        <v>0.32971014492753625</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>IF(H3 &gt; 75%, "pieniądze",  "śmierć przez powieszenie")</f>
+        <v>śmierć przez powieszenie</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="9">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E7" si="0">C4*D4</f>
+        <v>972</v>
+      </c>
+      <c r="F4" s="1">
+        <v>444</v>
+      </c>
+      <c r="G4" s="1">
+        <v>400</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H8" si="1">1 - F4/E4</f>
+        <v>0.54320987654320985</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" ref="I4:I8" si="2">IF(H4 &gt; 75%, "pieniądze",  "śmierć przez powieszenie")</f>
+        <v>śmierć przez powieszenie</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="9">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F5" s="1">
+        <v>333</v>
+      </c>
+      <c r="G5" s="1">
+        <v>300</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>śmierć przez powieszenie</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="9">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+      <c r="F6" s="1">
+        <v>222</v>
+      </c>
+      <c r="G6" s="1">
+        <v>200</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.80371352785145889</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>pieniądze</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="9">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="F7" s="1">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.90512820512820513</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>pieniądze</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="C8" s="9">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <f>C8*D8</f>
+        <v>819</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8">
+        <v>50</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.93284493284493286</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>pieniądze</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="A2:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <f>$A3*B$2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:P17" si="0">$A3*C$2</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" ref="B4:B17" si="1">$A4*B$2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="P17" s="11">
+        <f>I20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/frekfencja.xlsx
+++ b/frekfencja.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Frekfencja" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>klasa</t>
   </si>
@@ -67,6 +67,51 @@
   </si>
   <si>
     <t>nagroda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Największy pr. ob.: </t>
+  </si>
+  <si>
+    <t>Łęcki</t>
+  </si>
+  <si>
+    <t>Pawlak</t>
+  </si>
+  <si>
+    <t>Orłowski</t>
+  </si>
+  <si>
+    <t>polski</t>
+  </si>
+  <si>
+    <t>matma</t>
+  </si>
+  <si>
+    <t>fizyka</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>ile 1</t>
+  </si>
+  <si>
+    <t>ile 2</t>
+  </si>
+  <si>
+    <t>ile 3</t>
+  </si>
+  <si>
+    <t>ile 4</t>
+  </si>
+  <si>
+    <t>ile 5</t>
+  </si>
+  <si>
+    <t>Patrzylas</t>
   </si>
 </sst>
 </file>
@@ -265,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,6 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -567,26 +616,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -612,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
@@ -641,7 +691,7 @@
         <v>śmierć przez powieszenie</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -670,7 +720,7 @@
         <v>śmierć przez powieszenie</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -699,7 +749,7 @@
         <v>śmierć przez powieszenie</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -728,7 +778,7 @@
         <v>pieniądze</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -743,21 +793,21 @@
         <v>1170</v>
       </c>
       <c r="F7" s="1">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="1"/>
-        <v>0.90512820512820513</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>pieniądze</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -786,31 +836,216 @@
         <v>pieniądze</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15">
+        <f>MAX(H3:H8)</f>
+        <v>0.94871794871794868</v>
+      </c>
       <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="J12">
+        <f>COUNTIF(C12:G12, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(C12:G12, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIF(C12:G12, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIF(C12:G12, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f>COUNTIF(C12:G12, 5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="3">COUNTIF(C13:G13, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="4">COUNTIF(C13:G13, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L14" si="5">COUNTIF(C13:G13, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M14" si="6">COUNTIF(C13:G13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N14" si="7">COUNTIF(C13:G13, 5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="J15">
+        <f t="shared" ref="J15" si="8">COUNTIF(C15:G15, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="9">COUNTIF(C15:G15, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="10">COUNTIF(C15:G15, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="11">COUNTIF(C15:G15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="12">COUNTIF(C15:G15, 5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
     </row>
@@ -828,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="A2:P17"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,11 +1121,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <f>$A3*B$2</f>
+        <f>B$2*$A3</f>
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:P17" si="0">$A3*C$2</f>
+        <f t="shared" ref="C3:P3" si="0">C$2*$A3</f>
         <v>2</v>
       </c>
       <c r="D3" s="11">
@@ -951,63 +1186,63 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <f t="shared" ref="B4:B17" si="1">$A4*B$2</f>
+        <f t="shared" ref="B4:P17" si="1">B$2*$A4</f>
         <v>2</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="P4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1020,59 +1255,59 @@
         <v>3</v>
       </c>
       <c r="C5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1085,59 +1320,59 @@
         <v>4</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1150,59 +1385,59 @@
         <v>5</v>
       </c>
       <c r="C7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1215,59 +1450,59 @@
         <v>6</v>
       </c>
       <c r="C8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="J8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1280,59 +1515,59 @@
         <v>7</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -1345,59 +1580,59 @@
         <v>8</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1410,59 +1645,59 @@
         <v>9</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
@@ -1475,59 +1710,59 @@
         <v>10</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -1540,59 +1775,59 @@
         <v>11</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -1605,59 +1840,59 @@
         <v>12</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -1670,59 +1905,59 @@
         <v>13</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="J15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
@@ -1735,59 +1970,59 @@
         <v>14</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="J16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
@@ -1796,64 +2031,64 @@
         <v>15</v>
       </c>
       <c r="B17" s="11">
-        <f t="shared" si="1"/>
+        <f>B$2*$A17</f>
         <v>15</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="P17" s="11">
-        <f>I20</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
